--- a/SchemeAAIBME/SchemeFuzzyME.xlsx
+++ b/SchemeAAIBME/SchemeFuzzyME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,28 +551,28 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0.015604561</v>
+        <v>0.01523262</v>
       </c>
       <c r="I2" t="n">
-        <v>0.068765334</v>
+        <v>0.059765641</v>
       </c>
       <c r="J2" t="n">
-        <v>0.563637757</v>
+        <v>0.4770026</v>
       </c>
       <c r="K2" t="n">
-        <v>0.232788669</v>
+        <v>0.201172237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.015876323</v>
+        <v>0.015826669</v>
       </c>
       <c r="M2" t="n">
         <v>30</v>
@@ -615,28 +615,28 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0.023210805</v>
+        <v>0.022337499</v>
       </c>
       <c r="I3" t="n">
-        <v>0.113328234</v>
+        <v>0.118254796</v>
       </c>
       <c r="J3" t="n">
-        <v>0.959282394</v>
+        <v>0.997019066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.349224705</v>
+        <v>0.352287747</v>
       </c>
       <c r="L3" t="n">
-        <v>0.023006908</v>
+        <v>0.022357223</v>
       </c>
       <c r="M3" t="n">
         <v>30</v>
@@ -679,28 +679,28 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0.022318875</v>
+        <v>0.021500971</v>
       </c>
       <c r="I4" t="n">
-        <v>0.111295228</v>
+        <v>0.134276983</v>
       </c>
       <c r="J4" t="n">
-        <v>0.886015686</v>
+        <v>1.115924115</v>
       </c>
       <c r="K4" t="n">
-        <v>0.373104267</v>
+        <v>0.4145363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.023031969</v>
+        <v>0.022885091</v>
       </c>
       <c r="M4" t="n">
         <v>30</v>
@@ -743,28 +743,28 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0.029358587</v>
+        <v>0.030325371</v>
       </c>
       <c r="I5" t="n">
-        <v>0.187451139</v>
+        <v>0.174777149</v>
       </c>
       <c r="J5" t="n">
-        <v>1.506567768</v>
+        <v>1.439937622</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6393914040000001</v>
+        <v>0.581620938</v>
       </c>
       <c r="L5" t="n">
-        <v>0.032180408</v>
+        <v>0.029994092</v>
       </c>
       <c r="M5" t="n">
         <v>30</v>
@@ -807,28 +807,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02904883</v>
+        <v>0.028379722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.194610541</v>
+        <v>0.200843231</v>
       </c>
       <c r="J6" t="n">
-        <v>1.462044033</v>
+        <v>1.786275633</v>
       </c>
       <c r="K6" t="n">
-        <v>0.64404288</v>
+        <v>0.624200549</v>
       </c>
       <c r="L6" t="n">
-        <v>0.031141836</v>
+        <v>0.031907276</v>
       </c>
       <c r="M6" t="n">
         <v>30</v>
@@ -853,6 +853,5446 @@
       </c>
       <c r="T6" t="n">
         <v>9534</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>128</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.028797509</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.230811584</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.811056017</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.69238053</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.032345046</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30</v>
+      </c>
+      <c r="N7" t="n">
+        <v>90</v>
+      </c>
+      <c r="O7" t="n">
+        <v>174</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4774</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>180</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>128</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.035270169</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.294607339</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.534191404</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.926599776</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.041250406</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30</v>
+      </c>
+      <c r="N8" t="n">
+        <v>90</v>
+      </c>
+      <c r="O8" t="n">
+        <v>174</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5674</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>180</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S8" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T8" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>128</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.036521601</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.267496331</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.362397633</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.841833681</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03855775</v>
+      </c>
+      <c r="M9" t="n">
+        <v>30</v>
+      </c>
+      <c r="N9" t="n">
+        <v>90</v>
+      </c>
+      <c r="O9" t="n">
+        <v>174</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5674</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>180</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S9" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T9" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>128</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03464002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.312943784</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.007669203</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.938528138</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.039506023</v>
+      </c>
+      <c r="M10" t="n">
+        <v>30</v>
+      </c>
+      <c r="N10" t="n">
+        <v>90</v>
+      </c>
+      <c r="O10" t="n">
+        <v>174</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5674</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>180</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S10" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>128</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.039063148</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.257026202</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.018757383</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.721572609</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.039116838</v>
+      </c>
+      <c r="M11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O11" t="n">
+        <v>174</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5674</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>180</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S11" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>128</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.041944665</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.393009283</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.412385223</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.261136579</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.047005199</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30</v>
+      </c>
+      <c r="N12" t="n">
+        <v>90</v>
+      </c>
+      <c r="O12" t="n">
+        <v>174</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6574</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>180</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S12" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>128</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.041259347</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.336914639</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.278543068</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.138178158</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.045848759</v>
+      </c>
+      <c r="M13" t="n">
+        <v>30</v>
+      </c>
+      <c r="N13" t="n">
+        <v>90</v>
+      </c>
+      <c r="O13" t="n">
+        <v>174</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6574</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>180</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S13" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>128</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.041883865</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.391300905</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.295813285</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.272402662</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.048652787</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" t="n">
+        <v>90</v>
+      </c>
+      <c r="O14" t="n">
+        <v>174</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6574</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>180</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S14" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T14" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>128</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.044056195</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.443182243</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.590974423</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.407100597</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.049283694</v>
+      </c>
+      <c r="M15" t="n">
+        <v>30</v>
+      </c>
+      <c r="N15" t="n">
+        <v>90</v>
+      </c>
+      <c r="O15" t="n">
+        <v>174</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6574</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>180</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S15" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T15" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>128</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.04363096</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.406260298</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.3056236</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.312062178</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.048310538</v>
+      </c>
+      <c r="M16" t="n">
+        <v>30</v>
+      </c>
+      <c r="N16" t="n">
+        <v>90</v>
+      </c>
+      <c r="O16" t="n">
+        <v>174</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6574</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>180</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S16" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T16" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>160</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.015347371</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.066069794</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.568627204</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.221879284</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.015205859</v>
+      </c>
+      <c r="M17" t="n">
+        <v>30</v>
+      </c>
+      <c r="N17" t="n">
+        <v>90</v>
+      </c>
+      <c r="O17" t="n">
+        <v>174</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2978</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>180</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9000</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>160</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.023019922</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.139280141</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.103143164</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.418744142</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.024037033</v>
+      </c>
+      <c r="M18" t="n">
+        <v>30</v>
+      </c>
+      <c r="N18" t="n">
+        <v>90</v>
+      </c>
+      <c r="O18" t="n">
+        <v>174</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3878</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>180</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S18" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>160</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>100</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.022691171</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.140823651</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.152328328</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.434567561</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.025870721</v>
+      </c>
+      <c r="M19" t="n">
+        <v>30</v>
+      </c>
+      <c r="N19" t="n">
+        <v>90</v>
+      </c>
+      <c r="O19" t="n">
+        <v>174</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3878</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>180</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S19" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>160</v>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>100</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.030027184</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.267613985</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.515796634</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.690088604</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.031182078</v>
+      </c>
+      <c r="M20" t="n">
+        <v>30</v>
+      </c>
+      <c r="N20" t="n">
+        <v>90</v>
+      </c>
+      <c r="O20" t="n">
+        <v>174</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4778</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>180</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>160</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.028354495</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.174575273</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.697579707</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5337722070000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.030614779</v>
+      </c>
+      <c r="M21" t="n">
+        <v>30</v>
+      </c>
+      <c r="N21" t="n">
+        <v>90</v>
+      </c>
+      <c r="O21" t="n">
+        <v>174</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4778</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>180</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S21" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T21" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>160</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.028474793</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.169953665</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.372937465</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.520677542</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.033876136</v>
+      </c>
+      <c r="M22" t="n">
+        <v>30</v>
+      </c>
+      <c r="N22" t="n">
+        <v>90</v>
+      </c>
+      <c r="O22" t="n">
+        <v>174</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4778</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>180</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S22" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>160</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03456551</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.287451091</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.416035324</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.937228939</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.039125314</v>
+      </c>
+      <c r="M23" t="n">
+        <v>30</v>
+      </c>
+      <c r="N23" t="n">
+        <v>90</v>
+      </c>
+      <c r="O23" t="n">
+        <v>174</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5678</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>180</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S23" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>160</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.034822897</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.34299776</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.342696729</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.025584812</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.039321748</v>
+      </c>
+      <c r="M24" t="n">
+        <v>30</v>
+      </c>
+      <c r="N24" t="n">
+        <v>90</v>
+      </c>
+      <c r="O24" t="n">
+        <v>174</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5678</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>180</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S24" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>160</v>
+      </c>
+      <c r="C25" t="n">
+        <v>25</v>
+      </c>
+      <c r="D25" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.035537436</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.284931149</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.463394503</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.924601535</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.038798275</v>
+      </c>
+      <c r="M25" t="n">
+        <v>30</v>
+      </c>
+      <c r="N25" t="n">
+        <v>90</v>
+      </c>
+      <c r="O25" t="n">
+        <v>174</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5678</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>180</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S25" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>160</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.03502876</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.232744035</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.994006679</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.794237771</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.041522246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>30</v>
+      </c>
+      <c r="N26" t="n">
+        <v>90</v>
+      </c>
+      <c r="O26" t="n">
+        <v>174</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5678</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>180</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S26" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T26" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>160</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.044482761</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.423339022</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.08286634</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.263584293</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.04904935</v>
+      </c>
+      <c r="M27" t="n">
+        <v>30</v>
+      </c>
+      <c r="N27" t="n">
+        <v>90</v>
+      </c>
+      <c r="O27" t="n">
+        <v>174</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6578</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>180</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S27" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T27" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>160</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.042900057</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.477203999</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.360995813</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.448864252</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.045731777</v>
+      </c>
+      <c r="M28" t="n">
+        <v>30</v>
+      </c>
+      <c r="N28" t="n">
+        <v>90</v>
+      </c>
+      <c r="O28" t="n">
+        <v>174</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6578</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>180</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S28" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T28" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>160</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>100</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.041050734</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.375319269</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.566004706</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.229225713</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.045449724</v>
+      </c>
+      <c r="M29" t="n">
+        <v>30</v>
+      </c>
+      <c r="N29" t="n">
+        <v>90</v>
+      </c>
+      <c r="O29" t="n">
+        <v>174</v>
+      </c>
+      <c r="P29" t="n">
+        <v>6578</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>180</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T29" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>160</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.041112671</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.390899258</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.289641836</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.244477354</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.047900607</v>
+      </c>
+      <c r="M30" t="n">
+        <v>30</v>
+      </c>
+      <c r="N30" t="n">
+        <v>90</v>
+      </c>
+      <c r="O30" t="n">
+        <v>174</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6578</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>180</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S30" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T30" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>160</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.041580909</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.432817737</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.200900335</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.259554076</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.049379513</v>
+      </c>
+      <c r="M31" t="n">
+        <v>30</v>
+      </c>
+      <c r="N31" t="n">
+        <v>90</v>
+      </c>
+      <c r="O31" t="n">
+        <v>174</v>
+      </c>
+      <c r="P31" t="n">
+        <v>6578</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>180</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S31" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T31" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>224</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>100</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.015705836</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.059486568</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.547788148</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.189695148</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.014992446</v>
+      </c>
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
+        <v>90</v>
+      </c>
+      <c r="O32" t="n">
+        <v>174</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2986</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>180</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S32" t="n">
+        <v>9000</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>224</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>100</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>100</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.022264326</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.111442073</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.013568099</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.369451916</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.02253391</v>
+      </c>
+      <c r="M33" t="n">
+        <v>30</v>
+      </c>
+      <c r="N33" t="n">
+        <v>90</v>
+      </c>
+      <c r="O33" t="n">
+        <v>174</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3886</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>180</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S33" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>224</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="n">
+        <v>100</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.02200288</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.101985272</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.021019376</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.36230408</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.023288419</v>
+      </c>
+      <c r="M34" t="n">
+        <v>30</v>
+      </c>
+      <c r="N34" t="n">
+        <v>90</v>
+      </c>
+      <c r="O34" t="n">
+        <v>174</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3886</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>180</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S34" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>224</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.028226405</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.220149576</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.680127461</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.755498128</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.031078733</v>
+      </c>
+      <c r="M35" t="n">
+        <v>30</v>
+      </c>
+      <c r="N35" t="n">
+        <v>90</v>
+      </c>
+      <c r="O35" t="n">
+        <v>174</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4786</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>180</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S35" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T35" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>224</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.029109151</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.216502649</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.264379166</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.647025</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.031856357</v>
+      </c>
+      <c r="M36" t="n">
+        <v>30</v>
+      </c>
+      <c r="N36" t="n">
+        <v>90</v>
+      </c>
+      <c r="O36" t="n">
+        <v>174</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4786</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>180</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S36" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T36" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>224</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20</v>
+      </c>
+      <c r="D37" t="n">
+        <v>15</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100</v>
+      </c>
+      <c r="G37" t="n">
+        <v>100</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.031107719</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.242975511</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.60687036</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.697396669</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.032288324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>30</v>
+      </c>
+      <c r="N37" t="n">
+        <v>90</v>
+      </c>
+      <c r="O37" t="n">
+        <v>174</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4786</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>180</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S37" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>224</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>100</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.036231264</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.284794241</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.026366504</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8761599799999999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.038517505</v>
+      </c>
+      <c r="M38" t="n">
+        <v>30</v>
+      </c>
+      <c r="N38" t="n">
+        <v>90</v>
+      </c>
+      <c r="O38" t="n">
+        <v>174</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5686</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>180</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S38" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T38" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>224</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>100</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.034918422</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.287023333</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.176510451</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8897867860000001</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.039758502</v>
+      </c>
+      <c r="M39" t="n">
+        <v>30</v>
+      </c>
+      <c r="N39" t="n">
+        <v>90</v>
+      </c>
+      <c r="O39" t="n">
+        <v>174</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5686</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>180</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S39" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T39" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>224</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>100</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.034735674</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.29358961</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.237903723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.877564227</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.038875982</v>
+      </c>
+      <c r="M40" t="n">
+        <v>30</v>
+      </c>
+      <c r="N40" t="n">
+        <v>90</v>
+      </c>
+      <c r="O40" t="n">
+        <v>174</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5686</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>180</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S40" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T40" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>224</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>100</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.035210247</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.276721067</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.411336507</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.864043015</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.038804151</v>
+      </c>
+      <c r="M41" t="n">
+        <v>30</v>
+      </c>
+      <c r="N41" t="n">
+        <v>90</v>
+      </c>
+      <c r="O41" t="n">
+        <v>174</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5686</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>180</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S41" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T41" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>224</v>
+      </c>
+      <c r="C42" t="n">
+        <v>30</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" t="n">
+        <v>100</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.041571998</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.432420834</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.557898939</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.39353671</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.05264351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>30</v>
+      </c>
+      <c r="N42" t="n">
+        <v>90</v>
+      </c>
+      <c r="O42" t="n">
+        <v>174</v>
+      </c>
+      <c r="P42" t="n">
+        <v>6586</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>180</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S42" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T42" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>224</v>
+      </c>
+      <c r="C43" t="n">
+        <v>30</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" t="n">
+        <v>100</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.045772175</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.431372457</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.131403777</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.330193268</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.053772935</v>
+      </c>
+      <c r="M43" t="n">
+        <v>30</v>
+      </c>
+      <c r="N43" t="n">
+        <v>90</v>
+      </c>
+      <c r="O43" t="n">
+        <v>174</v>
+      </c>
+      <c r="P43" t="n">
+        <v>6586</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>180</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S43" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T43" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>224</v>
+      </c>
+      <c r="C44" t="n">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>15</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="n">
+        <v>100</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.048078503</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.443828146</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.333180775</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.296312125</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.046527257</v>
+      </c>
+      <c r="M44" t="n">
+        <v>30</v>
+      </c>
+      <c r="N44" t="n">
+        <v>90</v>
+      </c>
+      <c r="O44" t="n">
+        <v>174</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6586</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>180</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S44" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T44" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>224</v>
+      </c>
+      <c r="C45" t="n">
+        <v>30</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.041176077</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.454961494</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.802535311</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.3903256</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.051026605</v>
+      </c>
+      <c r="M45" t="n">
+        <v>30</v>
+      </c>
+      <c r="N45" t="n">
+        <v>90</v>
+      </c>
+      <c r="O45" t="n">
+        <v>174</v>
+      </c>
+      <c r="P45" t="n">
+        <v>6586</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>180</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S45" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T45" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>224</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" t="n">
+        <v>100</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100</v>
+      </c>
+      <c r="G46" t="n">
+        <v>100</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.042307849</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.416249711</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.608544084</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.181184852</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.047961156</v>
+      </c>
+      <c r="M46" t="n">
+        <v>30</v>
+      </c>
+      <c r="N46" t="n">
+        <v>90</v>
+      </c>
+      <c r="O46" t="n">
+        <v>174</v>
+      </c>
+      <c r="P46" t="n">
+        <v>6586</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>180</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S46" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T46" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>256</v>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>100</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n">
+        <v>100</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.017362646</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.069552874</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.544276193</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.221310287</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.016122611</v>
+      </c>
+      <c r="M47" t="n">
+        <v>30</v>
+      </c>
+      <c r="N47" t="n">
+        <v>90</v>
+      </c>
+      <c r="O47" t="n">
+        <v>174</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2990</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>180</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9000</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>256</v>
+      </c>
+      <c r="C48" t="n">
+        <v>15</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>100</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100</v>
+      </c>
+      <c r="G48" t="n">
+        <v>100</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.02157754</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.136628039</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.031528811</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.384821906</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.023015528</v>
+      </c>
+      <c r="M48" t="n">
+        <v>30</v>
+      </c>
+      <c r="N48" t="n">
+        <v>90</v>
+      </c>
+      <c r="O48" t="n">
+        <v>174</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3890</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>180</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S48" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>256</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>100</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100</v>
+      </c>
+      <c r="G49" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.022037526</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.119676857</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9934998739999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.385409151</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.024448802</v>
+      </c>
+      <c r="M49" t="n">
+        <v>30</v>
+      </c>
+      <c r="N49" t="n">
+        <v>90</v>
+      </c>
+      <c r="O49" t="n">
+        <v>174</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3890</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>180</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S49" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>256</v>
+      </c>
+      <c r="C50" t="n">
+        <v>20</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>100</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>100</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.028535286</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.187988911</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.841365859</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.625419439</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.031315248</v>
+      </c>
+      <c r="M50" t="n">
+        <v>30</v>
+      </c>
+      <c r="N50" t="n">
+        <v>90</v>
+      </c>
+      <c r="O50" t="n">
+        <v>174</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4790</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>180</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T50" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>256</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>100</v>
+      </c>
+      <c r="F51" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.029948439</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.241119029</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.544852384</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.721710137</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.030705728</v>
+      </c>
+      <c r="M51" t="n">
+        <v>30</v>
+      </c>
+      <c r="N51" t="n">
+        <v>90</v>
+      </c>
+      <c r="O51" t="n">
+        <v>174</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4790</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>180</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S51" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T51" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>256</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15</v>
+      </c>
+      <c r="E52" t="n">
+        <v>100</v>
+      </c>
+      <c r="F52" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.027992501</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.221568439</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.403804237</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.597178204</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.030520425</v>
+      </c>
+      <c r="M52" t="n">
+        <v>30</v>
+      </c>
+      <c r="N52" t="n">
+        <v>90</v>
+      </c>
+      <c r="O52" t="n">
+        <v>174</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4790</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>180</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S52" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T52" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>256</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>100</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.034377957</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.363340716</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.010395118</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.048915439</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.037945811</v>
+      </c>
+      <c r="M53" t="n">
+        <v>30</v>
+      </c>
+      <c r="N53" t="n">
+        <v>90</v>
+      </c>
+      <c r="O53" t="n">
+        <v>174</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5690</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>180</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S53" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T53" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>256</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>100</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" t="n">
+        <v>100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.034486065</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.271870525</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.394001752</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.956859176</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.040002223</v>
+      </c>
+      <c r="M54" t="n">
+        <v>30</v>
+      </c>
+      <c r="N54" t="n">
+        <v>90</v>
+      </c>
+      <c r="O54" t="n">
+        <v>174</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5690</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>180</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S54" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T54" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>256</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15</v>
+      </c>
+      <c r="E55" t="n">
+        <v>100</v>
+      </c>
+      <c r="F55" t="n">
+        <v>100</v>
+      </c>
+      <c r="G55" t="n">
+        <v>100</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.03692929</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.291028678</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.51110653</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.014438282</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.04289189</v>
+      </c>
+      <c r="M55" t="n">
+        <v>30</v>
+      </c>
+      <c r="N55" t="n">
+        <v>90</v>
+      </c>
+      <c r="O55" t="n">
+        <v>174</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5690</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>180</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S55" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T55" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>256</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" t="n">
+        <v>100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>100</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.039130668</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.299558229</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.706253158</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9500134</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.038338404</v>
+      </c>
+      <c r="M56" t="n">
+        <v>30</v>
+      </c>
+      <c r="N56" t="n">
+        <v>90</v>
+      </c>
+      <c r="O56" t="n">
+        <v>174</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5690</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>180</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S56" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T56" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>256</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>100</v>
+      </c>
+      <c r="G57" t="n">
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.040570234</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.393203516</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.871758353</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.196821448</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.045853268</v>
+      </c>
+      <c r="M57" t="n">
+        <v>30</v>
+      </c>
+      <c r="N57" t="n">
+        <v>90</v>
+      </c>
+      <c r="O57" t="n">
+        <v>174</v>
+      </c>
+      <c r="P57" t="n">
+        <v>6590</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>180</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S57" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T57" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>256</v>
+      </c>
+      <c r="C58" t="n">
+        <v>30</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>100</v>
+      </c>
+      <c r="F58" t="n">
+        <v>100</v>
+      </c>
+      <c r="G58" t="n">
+        <v>100</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.040919343</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.436758686</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.091427138</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.240637803</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.045471929</v>
+      </c>
+      <c r="M58" t="n">
+        <v>30</v>
+      </c>
+      <c r="N58" t="n">
+        <v>90</v>
+      </c>
+      <c r="O58" t="n">
+        <v>174</v>
+      </c>
+      <c r="P58" t="n">
+        <v>6590</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>180</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S58" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T58" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>256</v>
+      </c>
+      <c r="C59" t="n">
+        <v>30</v>
+      </c>
+      <c r="D59" t="n">
+        <v>15</v>
+      </c>
+      <c r="E59" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.042093315</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.372270713</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.255714611</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.086678367</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.045934969</v>
+      </c>
+      <c r="M59" t="n">
+        <v>30</v>
+      </c>
+      <c r="N59" t="n">
+        <v>90</v>
+      </c>
+      <c r="O59" t="n">
+        <v>174</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6590</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>180</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S59" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T59" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>256</v>
+      </c>
+      <c r="C60" t="n">
+        <v>30</v>
+      </c>
+      <c r="D60" t="n">
+        <v>20</v>
+      </c>
+      <c r="E60" t="n">
+        <v>100</v>
+      </c>
+      <c r="F60" t="n">
+        <v>100</v>
+      </c>
+      <c r="G60" t="n">
+        <v>100</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.040694994</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.384975094</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.958753073</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.166316499</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.046662753</v>
+      </c>
+      <c r="M60" t="n">
+        <v>30</v>
+      </c>
+      <c r="N60" t="n">
+        <v>90</v>
+      </c>
+      <c r="O60" t="n">
+        <v>174</v>
+      </c>
+      <c r="P60" t="n">
+        <v>6590</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>180</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S60" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T60" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>256</v>
+      </c>
+      <c r="C61" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" t="n">
+        <v>25</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100</v>
+      </c>
+      <c r="F61" t="n">
+        <v>100</v>
+      </c>
+      <c r="G61" t="n">
+        <v>100</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.046826421</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.513174285</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.871636841</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1.514678314</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.046335238</v>
+      </c>
+      <c r="M61" t="n">
+        <v>30</v>
+      </c>
+      <c r="N61" t="n">
+        <v>90</v>
+      </c>
+      <c r="O61" t="n">
+        <v>174</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6590</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>180</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S61" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T61" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>384</v>
+      </c>
+      <c r="C62" t="n">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100</v>
+      </c>
+      <c r="F62" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" t="n">
+        <v>100</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.015333842</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.058967715</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.518833843</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.197090906</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.015226573</v>
+      </c>
+      <c r="M62" t="n">
+        <v>30</v>
+      </c>
+      <c r="N62" t="n">
+        <v>90</v>
+      </c>
+      <c r="O62" t="n">
+        <v>174</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3006</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>180</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9000</v>
+      </c>
+      <c r="T62" t="n">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>384</v>
+      </c>
+      <c r="C63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+      <c r="F63" t="n">
+        <v>100</v>
+      </c>
+      <c r="G63" t="n">
+        <v>100</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.02211734</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.124955833</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.011905277</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.401605398</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.022734899</v>
+      </c>
+      <c r="M63" t="n">
+        <v>30</v>
+      </c>
+      <c r="N63" t="n">
+        <v>90</v>
+      </c>
+      <c r="O63" t="n">
+        <v>174</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3906</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>180</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S63" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T63" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>384</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100</v>
+      </c>
+      <c r="G64" t="n">
+        <v>100</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.021913655</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.11146769</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.896684738</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.388433019</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.023531568</v>
+      </c>
+      <c r="M64" t="n">
+        <v>30</v>
+      </c>
+      <c r="N64" t="n">
+        <v>90</v>
+      </c>
+      <c r="O64" t="n">
+        <v>174</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3906</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>180</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S64" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T64" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>384</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>100</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.027817986</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.19418679</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.506877773</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.609193947</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.031146532</v>
+      </c>
+      <c r="M65" t="n">
+        <v>30</v>
+      </c>
+      <c r="N65" t="n">
+        <v>90</v>
+      </c>
+      <c r="O65" t="n">
+        <v>174</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4806</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>180</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S65" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T65" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>384</v>
+      </c>
+      <c r="C66" t="n">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>100</v>
+      </c>
+      <c r="F66" t="n">
+        <v>100</v>
+      </c>
+      <c r="G66" t="n">
+        <v>100</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.029132097</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.211057535</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.563222885</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.664842377</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.033453954</v>
+      </c>
+      <c r="M66" t="n">
+        <v>30</v>
+      </c>
+      <c r="N66" t="n">
+        <v>90</v>
+      </c>
+      <c r="O66" t="n">
+        <v>174</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4806</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>180</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S66" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T66" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>384</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>15</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100</v>
+      </c>
+      <c r="F67" t="n">
+        <v>100</v>
+      </c>
+      <c r="G67" t="n">
+        <v>100</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.030503684</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.192341263</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.69661377</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.6113724820000001</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.031026871</v>
+      </c>
+      <c r="M67" t="n">
+        <v>30</v>
+      </c>
+      <c r="N67" t="n">
+        <v>90</v>
+      </c>
+      <c r="O67" t="n">
+        <v>174</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4806</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>180</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S67" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T67" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>384</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.034942884</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.345767383</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.461611128</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.001026836</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.037954994</v>
+      </c>
+      <c r="M68" t="n">
+        <v>30</v>
+      </c>
+      <c r="N68" t="n">
+        <v>90</v>
+      </c>
+      <c r="O68" t="n">
+        <v>174</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5706</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>180</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S68" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T68" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>384</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100</v>
+      </c>
+      <c r="G69" t="n">
+        <v>100</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.034289424</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.256754449</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.47778687</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.885002</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.03819032</v>
+      </c>
+      <c r="M69" t="n">
+        <v>30</v>
+      </c>
+      <c r="N69" t="n">
+        <v>90</v>
+      </c>
+      <c r="O69" t="n">
+        <v>174</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5706</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>180</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S69" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T69" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>384</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25</v>
+      </c>
+      <c r="D70" t="n">
+        <v>15</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>100</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.035671564</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.285335777</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.299491428</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.886990327</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.043289592</v>
+      </c>
+      <c r="M70" t="n">
+        <v>30</v>
+      </c>
+      <c r="N70" t="n">
+        <v>90</v>
+      </c>
+      <c r="O70" t="n">
+        <v>174</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5706</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>180</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S70" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T70" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>384</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25</v>
+      </c>
+      <c r="D71" t="n">
+        <v>20</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>100</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.035090902</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.320919515</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.453615092</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.963142294</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.039143978</v>
+      </c>
+      <c r="M71" t="n">
+        <v>30</v>
+      </c>
+      <c r="N71" t="n">
+        <v>90</v>
+      </c>
+      <c r="O71" t="n">
+        <v>174</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5706</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>180</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S71" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T71" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>384</v>
+      </c>
+      <c r="C72" t="n">
+        <v>30</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100</v>
+      </c>
+      <c r="G72" t="n">
+        <v>100</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.046393285</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.479157109</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.184641067</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.483593029</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.04839895</v>
+      </c>
+      <c r="M72" t="n">
+        <v>30</v>
+      </c>
+      <c r="N72" t="n">
+        <v>90</v>
+      </c>
+      <c r="O72" t="n">
+        <v>174</v>
+      </c>
+      <c r="P72" t="n">
+        <v>6606</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>180</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S72" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T72" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>384</v>
+      </c>
+      <c r="C73" t="n">
+        <v>30</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100</v>
+      </c>
+      <c r="G73" t="n">
+        <v>100</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.041047444</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.437033053</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.917585262</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.424792447</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.048353471</v>
+      </c>
+      <c r="M73" t="n">
+        <v>30</v>
+      </c>
+      <c r="N73" t="n">
+        <v>90</v>
+      </c>
+      <c r="O73" t="n">
+        <v>174</v>
+      </c>
+      <c r="P73" t="n">
+        <v>6606</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>180</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S73" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T73" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>384</v>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+      <c r="D74" t="n">
+        <v>15</v>
+      </c>
+      <c r="E74" t="n">
+        <v>100</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.044154547</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.473665937</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.390926527</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.381771351</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.045980553</v>
+      </c>
+      <c r="M74" t="n">
+        <v>30</v>
+      </c>
+      <c r="N74" t="n">
+        <v>90</v>
+      </c>
+      <c r="O74" t="n">
+        <v>174</v>
+      </c>
+      <c r="P74" t="n">
+        <v>6606</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>180</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S74" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T74" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>384</v>
+      </c>
+      <c r="C75" t="n">
+        <v>30</v>
+      </c>
+      <c r="D75" t="n">
+        <v>20</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="n">
+        <v>100</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.043637463</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.483497938</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.210911877</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.388161654</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.046563969</v>
+      </c>
+      <c r="M75" t="n">
+        <v>30</v>
+      </c>
+      <c r="N75" t="n">
+        <v>90</v>
+      </c>
+      <c r="O75" t="n">
+        <v>174</v>
+      </c>
+      <c r="P75" t="n">
+        <v>6606</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>180</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S75" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T75" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>384</v>
+      </c>
+      <c r="C76" t="n">
+        <v>30</v>
+      </c>
+      <c r="D76" t="n">
+        <v>25</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
+        <v>100</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.040299386</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.395100163</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.869576291</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.192734143</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.048307148</v>
+      </c>
+      <c r="M76" t="n">
+        <v>30</v>
+      </c>
+      <c r="N76" t="n">
+        <v>90</v>
+      </c>
+      <c r="O76" t="n">
+        <v>174</v>
+      </c>
+      <c r="P76" t="n">
+        <v>6606</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>180</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S76" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T76" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>512</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="n">
+        <v>100</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.016264989</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0646374</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.488406912</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.221624184</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.016171223</v>
+      </c>
+      <c r="M77" t="n">
+        <v>30</v>
+      </c>
+      <c r="N77" t="n">
+        <v>90</v>
+      </c>
+      <c r="O77" t="n">
+        <v>174</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3022</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>180</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1800</v>
+      </c>
+      <c r="S77" t="n">
+        <v>9000</v>
+      </c>
+      <c r="T77" t="n">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>512</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="n">
+        <v>100</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.022406726</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.127910591</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.07586679</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.411543751</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.023260944</v>
+      </c>
+      <c r="M78" t="n">
+        <v>30</v>
+      </c>
+      <c r="N78" t="n">
+        <v>90</v>
+      </c>
+      <c r="O78" t="n">
+        <v>174</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3922</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>180</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S78" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T78" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>512</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100</v>
+      </c>
+      <c r="G79" t="n">
+        <v>100</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.023435192</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.13522057</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.959345281</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.431862923</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.024390374</v>
+      </c>
+      <c r="M79" t="n">
+        <v>30</v>
+      </c>
+      <c r="N79" t="n">
+        <v>90</v>
+      </c>
+      <c r="O79" t="n">
+        <v>174</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3922</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>180</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2700</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13500</v>
+      </c>
+      <c r="T79" t="n">
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>512</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.033538515</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.210990009</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.658541619</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.630927672</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.030262324</v>
+      </c>
+      <c r="M80" t="n">
+        <v>30</v>
+      </c>
+      <c r="N80" t="n">
+        <v>90</v>
+      </c>
+      <c r="O80" t="n">
+        <v>174</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4822</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>180</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S80" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T80" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>512</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" t="n">
+        <v>100</v>
+      </c>
+      <c r="G81" t="n">
+        <v>100</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.028303266</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.214596455</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.769262774</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.618224616</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.032687294</v>
+      </c>
+      <c r="M81" t="n">
+        <v>30</v>
+      </c>
+      <c r="N81" t="n">
+        <v>90</v>
+      </c>
+      <c r="O81" t="n">
+        <v>174</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4822</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>180</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S81" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T81" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>512</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.030869875</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.185575721</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.515482693</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.572797687</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.031293468</v>
+      </c>
+      <c r="M82" t="n">
+        <v>30</v>
+      </c>
+      <c r="N82" t="n">
+        <v>90</v>
+      </c>
+      <c r="O82" t="n">
+        <v>174</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4822</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>180</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3600</v>
+      </c>
+      <c r="S82" t="n">
+        <v>18000</v>
+      </c>
+      <c r="T82" t="n">
+        <v>9534</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>512</v>
+      </c>
+      <c r="C83" t="n">
+        <v>25</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>100</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.034893464</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.243382539</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.405126456</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.722673322</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.041411046</v>
+      </c>
+      <c r="M83" t="n">
+        <v>30</v>
+      </c>
+      <c r="N83" t="n">
+        <v>90</v>
+      </c>
+      <c r="O83" t="n">
+        <v>174</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5722</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>180</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S83" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T83" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>512</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>100</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.037800366</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.374697728</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.539503693</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.037242119</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.038018331</v>
+      </c>
+      <c r="M84" t="n">
+        <v>30</v>
+      </c>
+      <c r="N84" t="n">
+        <v>90</v>
+      </c>
+      <c r="O84" t="n">
+        <v>174</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5722</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>180</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S84" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T84" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>512</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100</v>
+      </c>
+      <c r="G85" t="n">
+        <v>100</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.03490132</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.324944396</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.743113889</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.984382661</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.037949239</v>
+      </c>
+      <c r="M85" t="n">
+        <v>30</v>
+      </c>
+      <c r="N85" t="n">
+        <v>90</v>
+      </c>
+      <c r="O85" t="n">
+        <v>174</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5722</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>180</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S85" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T85" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>512</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>20</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>100</v>
+      </c>
+      <c r="G86" t="n">
+        <v>100</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.034281772</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.243183269</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.95275077</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.77257601</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.040358779</v>
+      </c>
+      <c r="M86" t="n">
+        <v>30</v>
+      </c>
+      <c r="N86" t="n">
+        <v>90</v>
+      </c>
+      <c r="O86" t="n">
+        <v>174</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5722</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>180</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S86" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T86" t="n">
+        <v>11784</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>512</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100</v>
+      </c>
+      <c r="G87" t="n">
+        <v>100</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.04100332</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.463564366</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.893180052</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.301930858</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.045155053</v>
+      </c>
+      <c r="M87" t="n">
+        <v>30</v>
+      </c>
+      <c r="N87" t="n">
+        <v>90</v>
+      </c>
+      <c r="O87" t="n">
+        <v>174</v>
+      </c>
+      <c r="P87" t="n">
+        <v>6622</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>180</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S87" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T87" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>512</v>
+      </c>
+      <c r="C88" t="n">
+        <v>30</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100</v>
+      </c>
+      <c r="G88" t="n">
+        <v>100</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.041075591</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.417834733</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.163107407</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.270178338</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.046536555</v>
+      </c>
+      <c r="M88" t="n">
+        <v>30</v>
+      </c>
+      <c r="N88" t="n">
+        <v>90</v>
+      </c>
+      <c r="O88" t="n">
+        <v>174</v>
+      </c>
+      <c r="P88" t="n">
+        <v>6622</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>180</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S88" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T88" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>512</v>
+      </c>
+      <c r="C89" t="n">
+        <v>30</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" t="n">
+        <v>100</v>
+      </c>
+      <c r="G89" t="n">
+        <v>100</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0415308</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.392919624</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.3393697</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.24257451</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.047068998</v>
+      </c>
+      <c r="M89" t="n">
+        <v>30</v>
+      </c>
+      <c r="N89" t="n">
+        <v>90</v>
+      </c>
+      <c r="O89" t="n">
+        <v>174</v>
+      </c>
+      <c r="P89" t="n">
+        <v>6622</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>180</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S89" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T89" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>512</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100</v>
+      </c>
+      <c r="G90" t="n">
+        <v>100</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.04143337</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.365033908</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.06424316</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.255713939</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.051477345</v>
+      </c>
+      <c r="M90" t="n">
+        <v>30</v>
+      </c>
+      <c r="N90" t="n">
+        <v>90</v>
+      </c>
+      <c r="O90" t="n">
+        <v>174</v>
+      </c>
+      <c r="P90" t="n">
+        <v>6622</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>180</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S90" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T90" t="n">
+        <v>14034</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>512</v>
+      </c>
+      <c r="C91" t="n">
+        <v>30</v>
+      </c>
+      <c r="D91" t="n">
+        <v>25</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100</v>
+      </c>
+      <c r="G91" t="n">
+        <v>100</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.044153988</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.480776916</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3.463842298</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.336090038</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.050627353</v>
+      </c>
+      <c r="M91" t="n">
+        <v>30</v>
+      </c>
+      <c r="N91" t="n">
+        <v>90</v>
+      </c>
+      <c r="O91" t="n">
+        <v>174</v>
+      </c>
+      <c r="P91" t="n">
+        <v>6622</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>180</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5400</v>
+      </c>
+      <c r="S91" t="n">
+        <v>27000</v>
+      </c>
+      <c r="T91" t="n">
+        <v>14034</v>
       </c>
     </row>
   </sheetData>
